--- a/outcome/appendix/Table S3.xlsx
+++ b/outcome/appendix/Table S3.xlsx
@@ -471,13 +471,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>39814</v>
+        <v>41275</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="D6" t="n">
-        <v>3140</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="7">

--- a/outcome/appendix/Table S3.xlsx
+++ b/outcome/appendix/Table S3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -23,37 +23,100 @@
     <t xml:space="preserve">date_max</t>
   </si>
   <si>
+    <t xml:space="preserve">date_num</t>
+  </si>
+  <si>
     <t xml:space="preserve">count</t>
   </si>
   <si>
     <t xml:space="preserve">Anhui</t>
   </si>
   <si>
+    <t xml:space="preserve">Beijing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chongqing</t>
   </si>
   <si>
+    <t xml:space="preserve">Fujian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gansu</t>
   </si>
   <si>
     <t xml:space="preserve">Guangdong</t>
   </si>
   <si>
+    <t xml:space="preserve">Guangxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guizhou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hainan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heilongjiang</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henan</t>
   </si>
   <si>
+    <t xml:space="preserve">Hubei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jiangsu</t>
   </si>
   <si>
+    <t xml:space="preserve">Jiangxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jilin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liaoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neimenggu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ningxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qinghai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaanxi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shandong</t>
   </si>
   <si>
     <t xml:space="preserve">Shanghai</t>
   </si>
   <si>
+    <t xml:space="preserve">Shanxi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sichuan</t>
   </si>
   <si>
+    <t xml:space="preserve">Tianjin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xinjiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xizang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yunnan</t>
   </si>
   <si>
     <t xml:space="preserve">Zhejiang</t>
@@ -409,159 +472,535 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43101</v>
+        <v>39448</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="D2" t="n">
-        <v>1623</v>
+        <v>192</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43525</v>
+        <v>39448</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D3" t="n">
-        <v>997</v>
+        <v>156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44896</v>
+        <v>39448</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>179</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>39569</v>
+        <v>39448</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D5" t="n">
-        <v>1816</v>
+        <v>156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>41275</v>
+        <v>39448</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="D6" t="n">
-        <v>2900</v>
+        <v>168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44105</v>
+        <v>39448</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="D7" t="n">
-        <v>542</v>
+        <v>192</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>42736</v>
+        <v>39448</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44501</v>
+        <v>44166</v>
       </c>
       <c r="D8" t="n">
-        <v>1392</v>
+        <v>156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3053</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>42401</v>
+        <v>39448</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D9" t="n">
-        <v>1368</v>
+        <v>156</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>42522</v>
+        <v>39448</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D10" t="n">
-        <v>2136</v>
+        <v>156</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44013</v>
+        <v>39448</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D11" t="n">
-        <v>940</v>
+        <v>156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>41275</v>
+        <v>39448</v>
       </c>
       <c r="C12" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D12" t="n">
+        <v>156</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="D12" t="n">
-        <v>2568</v>
+      <c r="D13" t="n">
+        <v>191</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D14" t="n">
+        <v>156</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D15" t="n">
+        <v>156</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="D16" t="n">
+        <v>192</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D17" t="n">
+        <v>156</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D18" t="n">
+        <v>156</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>156</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>156</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D21" t="n">
+        <v>156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D22" t="n">
+        <v>156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D23" t="n">
+        <v>156</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="D24" t="n">
+        <v>167</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="D25" t="n">
+        <v>192</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D26" t="n">
+        <v>156</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="D27" t="n">
+        <v>192</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D28" t="n">
+        <v>156</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="D29" t="n">
+        <v>192</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D30" t="n">
+        <v>156</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D31" t="n">
+        <v>156</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="D32" t="n">
+        <v>171</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3650</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Table S3.xlsx
+++ b/outcome/appendix/Table S3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -26,12 +26,18 @@
     <t xml:space="preserve">date_num</t>
   </si>
   <si>
+    <t xml:space="preserve">date_miss</t>
+  </si>
+  <si>
     <t xml:space="preserve">count</t>
   </si>
   <si>
     <t xml:space="preserve">Anhui</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">Beijing</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t xml:space="preserve">Hunan</t>
   </si>
   <si>
+    <t xml:space="preserve">Inner Mongolia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jiangsu</t>
   </si>
   <si>
@@ -83,9 +92,6 @@
     <t xml:space="preserve">Liaoning</t>
   </si>
   <si>
-    <t xml:space="preserve">Neimenggu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ningxia</t>
   </si>
   <si>
@@ -110,10 +116,13 @@
     <t xml:space="preserve">Tianjin</t>
   </si>
   <si>
+    <t xml:space="preserve">Tibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xinjiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xizang</t>
   </si>
   <si>
     <t xml:space="preserve">Yunnan</t>
@@ -475,10 +484,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>39448</v>
@@ -489,13 +501,16 @@
       <c r="D2" t="n">
         <v>192</v>
       </c>
-      <c r="E2" t="n">
-        <v>4082</v>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>39448</v>
@@ -506,13 +521,16 @@
       <c r="D3" t="n">
         <v>156</v>
       </c>
-      <c r="E3" t="n">
-        <v>3099</v>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>39448</v>
@@ -521,15 +539,18 @@
         <v>45261</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3651</v>
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>39448</v>
@@ -540,13 +561,16 @@
       <c r="D5" t="n">
         <v>156</v>
       </c>
-      <c r="E5" t="n">
-        <v>3192</v>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>39448</v>
@@ -555,15 +579,18 @@
         <v>45261</v>
       </c>
       <c r="D6" t="n">
-        <v>168</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3513</v>
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>39448</v>
@@ -574,13 +601,16 @@
       <c r="D7" t="n">
         <v>192</v>
       </c>
-      <c r="E7" t="n">
-        <v>4016</v>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>39448</v>
@@ -591,13 +621,16 @@
       <c r="D8" t="n">
         <v>156</v>
       </c>
-      <c r="E8" t="n">
-        <v>3053</v>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>39448</v>
@@ -608,13 +641,16 @@
       <c r="D9" t="n">
         <v>156</v>
       </c>
-      <c r="E9" t="n">
-        <v>3124</v>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>39448</v>
@@ -625,13 +661,16 @@
       <c r="D10" t="n">
         <v>156</v>
       </c>
-      <c r="E10" t="n">
-        <v>2658</v>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>39448</v>
@@ -642,13 +681,16 @@
       <c r="D11" t="n">
         <v>156</v>
       </c>
-      <c r="E11" t="n">
-        <v>3259</v>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>39448</v>
@@ -659,13 +701,16 @@
       <c r="D12" t="n">
         <v>156</v>
       </c>
-      <c r="E12" t="n">
-        <v>3029</v>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>39448</v>
@@ -674,15 +719,18 @@
         <v>45261</v>
       </c>
       <c r="D13" t="n">
-        <v>191</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4174</v>
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>39448</v>
@@ -693,13 +741,16 @@
       <c r="D14" t="n">
         <v>156</v>
       </c>
-      <c r="E14" t="n">
-        <v>3198</v>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>39448</v>
@@ -710,47 +761,56 @@
       <c r="D15" t="n">
         <v>156</v>
       </c>
-      <c r="E15" t="n">
-        <v>3240</v>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D16" t="n">
-        <v>192</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3728</v>
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44166</v>
+        <v>45261</v>
       </c>
       <c r="D17" t="n">
-        <v>156</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3095</v>
+        <v>192</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>39448</v>
@@ -761,13 +821,16 @@
       <c r="D18" t="n">
         <v>156</v>
       </c>
-      <c r="E18" t="n">
-        <v>2890</v>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>39448</v>
@@ -778,13 +841,16 @@
       <c r="D19" t="n">
         <v>156</v>
       </c>
-      <c r="E19" t="n">
-        <v>3056</v>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>39448</v>
@@ -795,13 +861,16 @@
       <c r="D20" t="n">
         <v>156</v>
       </c>
-      <c r="E20" t="n">
-        <v>3090</v>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>39448</v>
@@ -812,13 +881,16 @@
       <c r="D21" t="n">
         <v>156</v>
       </c>
-      <c r="E21" t="n">
-        <v>2881</v>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>39448</v>
@@ -829,13 +901,16 @@
       <c r="D22" t="n">
         <v>156</v>
       </c>
-      <c r="E22" t="n">
-        <v>2721</v>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>39448</v>
@@ -846,30 +921,36 @@
       <c r="D23" t="n">
         <v>156</v>
       </c>
-      <c r="E23" t="n">
-        <v>3300</v>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44501</v>
+        <v>45261</v>
       </c>
       <c r="D24" t="n">
-        <v>167</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3558</v>
+        <v>192</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>39448</v>
@@ -880,13 +961,16 @@
       <c r="D25" t="n">
         <v>192</v>
       </c>
-      <c r="E25" t="n">
-        <v>3668</v>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>39448</v>
@@ -897,13 +981,16 @@
       <c r="D26" t="n">
         <v>156</v>
       </c>
-      <c r="E26" t="n">
-        <v>3098</v>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>39448</v>
@@ -914,13 +1001,16 @@
       <c r="D27" t="n">
         <v>192</v>
       </c>
-      <c r="E27" t="n">
-        <v>4250</v>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>39448</v>
@@ -931,30 +1021,36 @@
       <c r="D28" t="n">
         <v>156</v>
       </c>
-      <c r="E28" t="n">
-        <v>2936</v>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D29" t="n">
-        <v>192</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3888</v>
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>39448</v>
@@ -965,42 +1061,71 @@
       <c r="D30" t="n">
         <v>156</v>
       </c>
-      <c r="E30" t="n">
-        <v>2433</v>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3744</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44166</v>
+        <v>45261</v>
       </c>
       <c r="D31" t="n">
-        <v>156</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3382</v>
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4608</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>39448</v>
       </c>
       <c r="C32" s="1" t="n">
+        <v>44166</v>
+      </c>
+      <c r="D32" t="n">
+        <v>156</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>39448</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="D32" t="n">
-        <v>171</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3650</v>
+      <c r="D33" t="n">
+        <v>192</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4608</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/Table S3.xlsx
+++ b/outcome/appendix/Table S3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tibet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Xinjiang</t>
@@ -1056,16 +1053,16 @@
         <v>39448</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44166</v>
+        <v>45261</v>
       </c>
       <c r="D30" t="n">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>3744</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="31">
@@ -1076,16 +1073,16 @@
         <v>39448</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45261</v>
+        <v>44166</v>
       </c>
       <c r="D31" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>4608</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="32">
@@ -1096,35 +1093,15 @@
         <v>39448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44166</v>
+        <v>45261</v>
       </c>
       <c r="D32" t="n">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>39448</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="D33" t="n">
-        <v>192</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="n">
         <v>4608</v>
       </c>
     </row>
